--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
@@ -537,52 +537,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.97589499273046</v>
+        <v>12.205452</v>
       </c>
       <c r="H2">
-        <v>8.97589499273046</v>
+        <v>36.616356</v>
       </c>
       <c r="I2">
-        <v>0.3112082463556786</v>
+        <v>0.2018297984138105</v>
       </c>
       <c r="J2">
-        <v>0.3112082463556786</v>
+        <v>0.2018297984138104</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N2">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O2">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P2">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q2">
-        <v>21.67653709796125</v>
+        <v>76.62885867658001</v>
       </c>
       <c r="R2">
-        <v>21.67653709796125</v>
+        <v>689.65972808922</v>
       </c>
       <c r="S2">
-        <v>0.003564422401565242</v>
+        <v>0.005261475361484037</v>
       </c>
       <c r="T2">
-        <v>0.003564422401565242</v>
+        <v>0.005261475361484037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.97589499273046</v>
+        <v>12.205452</v>
       </c>
       <c r="H3">
-        <v>8.97589499273046</v>
+        <v>36.616356</v>
       </c>
       <c r="I3">
-        <v>0.3112082463556786</v>
+        <v>0.2018297984138105</v>
       </c>
       <c r="J3">
-        <v>0.3112082463556786</v>
+        <v>0.2018297984138104</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N3">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O3">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P3">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q3">
-        <v>77.68259338579351</v>
+        <v>108.736244050868</v>
       </c>
       <c r="R3">
-        <v>77.68259338579351</v>
+        <v>978.6261964578118</v>
       </c>
       <c r="S3">
-        <v>0.0127738842613403</v>
+        <v>0.007466026231561395</v>
       </c>
       <c r="T3">
-        <v>0.0127738842613403</v>
+        <v>0.007466026231561392</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.97589499273046</v>
+        <v>12.205452</v>
       </c>
       <c r="H4">
-        <v>8.97589499273046</v>
+        <v>36.616356</v>
       </c>
       <c r="I4">
-        <v>0.3112082463556786</v>
+        <v>0.2018297984138105</v>
       </c>
       <c r="J4">
-        <v>0.3112082463556786</v>
+        <v>0.2018297984138104</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N4">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O4">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P4">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q4">
-        <v>416.4924230546623</v>
+        <v>783.057201598392</v>
       </c>
       <c r="R4">
-        <v>416.4924230546623</v>
+        <v>7047.514814385527</v>
       </c>
       <c r="S4">
-        <v>0.06848671981641631</v>
+        <v>0.05376611689117824</v>
       </c>
       <c r="T4">
-        <v>0.06848671981641631</v>
+        <v>0.05376611689117822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.97589499273046</v>
+        <v>12.205452</v>
       </c>
       <c r="H5">
-        <v>8.97589499273046</v>
+        <v>36.616356</v>
       </c>
       <c r="I5">
-        <v>0.3112082463556786</v>
+        <v>0.2018297984138105</v>
       </c>
       <c r="J5">
-        <v>0.3112082463556786</v>
+        <v>0.2018297984138104</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N5">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O5">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P5">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q5">
-        <v>535.3593887992261</v>
+        <v>743.1307595638639</v>
       </c>
       <c r="R5">
-        <v>535.3593887992261</v>
+        <v>6688.176836074775</v>
       </c>
       <c r="S5">
-        <v>0.08803283428992514</v>
+        <v>0.05102469551724103</v>
       </c>
       <c r="T5">
-        <v>0.08803283428992514</v>
+        <v>0.05102469551724102</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.97589499273046</v>
+        <v>12.205452</v>
       </c>
       <c r="H6">
-        <v>8.97589499273046</v>
+        <v>36.616356</v>
       </c>
       <c r="I6">
-        <v>0.3112082463556786</v>
+        <v>0.2018297984138105</v>
       </c>
       <c r="J6">
-        <v>0.3112082463556786</v>
+        <v>0.2018297984138104</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N6">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O6">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P6">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q6">
-        <v>779.1210847895127</v>
+        <v>1136.581784148804</v>
       </c>
       <c r="R6">
-        <v>779.1210847895127</v>
+        <v>10229.23605733923</v>
       </c>
       <c r="S6">
-        <v>0.1281162501005176</v>
+        <v>0.07803975104014163</v>
       </c>
       <c r="T6">
-        <v>0.1281162501005176</v>
+        <v>0.07803975104014163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.97589499273046</v>
+        <v>12.205452</v>
       </c>
       <c r="H7">
-        <v>8.97589499273046</v>
+        <v>36.616356</v>
       </c>
       <c r="I7">
-        <v>0.3112082463556786</v>
+        <v>0.2018297984138105</v>
       </c>
       <c r="J7">
-        <v>0.3112082463556786</v>
+        <v>0.2018297984138104</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N7">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O7">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P7">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q7">
-        <v>62.23746585942212</v>
+        <v>91.34239680260799</v>
       </c>
       <c r="R7">
-        <v>62.23746585942212</v>
+        <v>822.0815712234719</v>
       </c>
       <c r="S7">
-        <v>0.01023413548591398</v>
+        <v>0.006271733372204123</v>
       </c>
       <c r="T7">
-        <v>0.01023413548591398</v>
+        <v>0.006271733372204122</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.8877720160418</v>
+        <v>43.57199666666667</v>
       </c>
       <c r="H8">
-        <v>15.8877720160418</v>
+        <v>130.71599</v>
       </c>
       <c r="I8">
-        <v>0.5508537779926845</v>
+        <v>0.7205081224128821</v>
       </c>
       <c r="J8">
-        <v>0.5508537779926845</v>
+        <v>0.720508122412882</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N8">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O8">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P8">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q8">
-        <v>38.36852812879409</v>
+        <v>273.5558154525056</v>
       </c>
       <c r="R8">
-        <v>38.36852812879409</v>
+        <v>2462.002339072551</v>
       </c>
       <c r="S8">
-        <v>0.006309201537095271</v>
+        <v>0.01878283466374955</v>
       </c>
       <c r="T8">
-        <v>0.006309201537095271</v>
+        <v>0.01878283466374955</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.8877720160418</v>
+        <v>43.57199666666667</v>
       </c>
       <c r="H9">
-        <v>15.8877720160418</v>
+        <v>130.71599</v>
       </c>
       <c r="I9">
-        <v>0.5508537779926845</v>
+        <v>0.7205081224128821</v>
       </c>
       <c r="J9">
-        <v>0.5508537779926845</v>
+        <v>0.720508122412882</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N9">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O9">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P9">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q9">
-        <v>137.5019799505164</v>
+        <v>388.1753222519145</v>
       </c>
       <c r="R9">
-        <v>137.5019799505164</v>
+        <v>3493.57790026723</v>
       </c>
       <c r="S9">
-        <v>0.02261039830210206</v>
+        <v>0.02665281630494627</v>
       </c>
       <c r="T9">
-        <v>0.02261039830210206</v>
+        <v>0.02665281630494626</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.8877720160418</v>
+        <v>43.57199666666667</v>
       </c>
       <c r="H10">
-        <v>15.8877720160418</v>
+        <v>130.71599</v>
       </c>
       <c r="I10">
-        <v>0.5508537779926845</v>
+        <v>0.7205081224128821</v>
       </c>
       <c r="J10">
-        <v>0.5508537779926845</v>
+        <v>0.720508122412882</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N10">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O10">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P10">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q10">
-        <v>737.211906919644</v>
+        <v>2795.420094057514</v>
       </c>
       <c r="R10">
-        <v>737.211906919644</v>
+        <v>25158.78084651762</v>
       </c>
       <c r="S10">
-        <v>0.1212248351224032</v>
+        <v>0.1919385751516641</v>
       </c>
       <c r="T10">
-        <v>0.1212248351224032</v>
+        <v>0.191938575151664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.8877720160418</v>
+        <v>43.57199666666667</v>
       </c>
       <c r="H11">
-        <v>15.8877720160418</v>
+        <v>130.71599</v>
       </c>
       <c r="I11">
-        <v>0.5508537779926845</v>
+        <v>0.7205081224128821</v>
       </c>
       <c r="J11">
-        <v>0.5508537779926845</v>
+        <v>0.720508122412882</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N11">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O11">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P11">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q11">
-        <v>947.6122350783171</v>
+        <v>2652.887494753504</v>
       </c>
       <c r="R11">
-        <v>947.6122350783171</v>
+        <v>23875.98745278154</v>
       </c>
       <c r="S11">
-        <v>0.1558224112756527</v>
+        <v>0.1821520303381561</v>
       </c>
       <c r="T11">
-        <v>0.1558224112756527</v>
+        <v>0.1821520303381561</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.8877720160418</v>
+        <v>43.57199666666667</v>
       </c>
       <c r="H12">
-        <v>15.8877720160418</v>
+        <v>130.71599</v>
       </c>
       <c r="I12">
-        <v>0.5508537779926845</v>
+        <v>0.7205081224128821</v>
       </c>
       <c r="J12">
-        <v>0.5508537779926845</v>
+        <v>0.720508122412882</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N12">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O12">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P12">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q12">
-        <v>1379.082328620404</v>
+        <v>4057.460363641244</v>
       </c>
       <c r="R12">
-        <v>1379.082328620404</v>
+        <v>36517.14327277119</v>
       </c>
       <c r="S12">
-        <v>0.2267720126846119</v>
+        <v>0.2785925316152608</v>
       </c>
       <c r="T12">
-        <v>0.2267720126846119</v>
+        <v>0.2785925316152608</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.8877720160418</v>
+        <v>43.57199666666667</v>
       </c>
       <c r="H13">
-        <v>15.8877720160418</v>
+        <v>130.71599</v>
       </c>
       <c r="I13">
-        <v>0.5508537779926845</v>
+        <v>0.7205081224128821</v>
       </c>
       <c r="J13">
-        <v>0.5508537779926845</v>
+        <v>0.720508122412882</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N13">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O13">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P13">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q13">
-        <v>110.1633507557208</v>
+        <v>326.0813781422089</v>
       </c>
       <c r="R13">
-        <v>110.1633507557208</v>
+        <v>2934.73240327988</v>
       </c>
       <c r="S13">
-        <v>0.01811491907081931</v>
+        <v>0.0223893343391052</v>
       </c>
       <c r="T13">
-        <v>0.01811491907081931</v>
+        <v>0.02238933433910519</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.97841895083932</v>
+        <v>4.696535333333333</v>
       </c>
       <c r="H14">
-        <v>3.97841895083932</v>
+        <v>14.089606</v>
       </c>
       <c r="I14">
-        <v>0.1379379756516369</v>
+        <v>0.07766207917330753</v>
       </c>
       <c r="J14">
-        <v>0.1379379756516369</v>
+        <v>0.07766207917330753</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N14">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O14">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P14">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q14">
-        <v>9.607771263917934</v>
+        <v>29.48601512894111</v>
       </c>
       <c r="R14">
-        <v>9.607771263917934</v>
+        <v>265.37413616047</v>
       </c>
       <c r="S14">
-        <v>0.001579872050939578</v>
+        <v>0.002024562870811548</v>
       </c>
       <c r="T14">
-        <v>0.001579872050939578</v>
+        <v>0.002024562870811548</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.97841895083932</v>
+        <v>4.696535333333333</v>
       </c>
       <c r="H15">
-        <v>3.97841895083932</v>
+        <v>14.089606</v>
       </c>
       <c r="I15">
-        <v>0.1379379756516369</v>
+        <v>0.07766207917330753</v>
       </c>
       <c r="J15">
-        <v>0.1379379756516369</v>
+        <v>0.07766207917330753</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N15">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O15">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P15">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q15">
-        <v>34.4315415818353</v>
+        <v>41.84061452200689</v>
       </c>
       <c r="R15">
-        <v>34.4315415818353</v>
+        <v>376.565530698062</v>
       </c>
       <c r="S15">
-        <v>0.005661815703314619</v>
+        <v>0.002872851902258237</v>
       </c>
       <c r="T15">
-        <v>0.005661815703314619</v>
+        <v>0.002872851902258236</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.97841895083932</v>
+        <v>4.696535333333333</v>
       </c>
       <c r="H16">
-        <v>3.97841895083932</v>
+        <v>14.089606</v>
       </c>
       <c r="I16">
-        <v>0.1379379756516369</v>
+        <v>0.07766207917330753</v>
       </c>
       <c r="J16">
-        <v>0.1379379756516369</v>
+        <v>0.07766207917330753</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N16">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O16">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P16">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q16">
-        <v>184.6034685235999</v>
+        <v>301.3125458465586</v>
       </c>
       <c r="R16">
-        <v>184.6034685235999</v>
+        <v>2711.812912619028</v>
       </c>
       <c r="S16">
-        <v>0.03035562071739084</v>
+        <v>0.02068866173211354</v>
       </c>
       <c r="T16">
-        <v>0.03035562071739084</v>
+        <v>0.02068866173211354</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.97841895083932</v>
+        <v>4.696535333333333</v>
       </c>
       <c r="H17">
-        <v>3.97841895083932</v>
+        <v>14.089606</v>
       </c>
       <c r="I17">
-        <v>0.1379379756516369</v>
+        <v>0.07766207917330753</v>
       </c>
       <c r="J17">
-        <v>0.1379379756516369</v>
+        <v>0.07766207917330753</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N17">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O17">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P17">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q17">
-        <v>237.2893109415363</v>
+        <v>285.9492519882529</v>
       </c>
       <c r="R17">
-        <v>237.2893109415363</v>
+        <v>2573.543267894276</v>
       </c>
       <c r="S17">
-        <v>0.03901911692580926</v>
+        <v>0.01963379032331596</v>
       </c>
       <c r="T17">
-        <v>0.03901911692580926</v>
+        <v>0.01963379032331596</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.97841895083932</v>
+        <v>4.696535333333333</v>
       </c>
       <c r="H18">
-        <v>3.97841895083932</v>
+        <v>14.089606</v>
       </c>
       <c r="I18">
-        <v>0.1379379756516369</v>
+        <v>0.07766207917330753</v>
       </c>
       <c r="J18">
-        <v>0.1379379756516369</v>
+        <v>0.07766207917330753</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N18">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O18">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P18">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q18">
-        <v>345.332704007288</v>
+        <v>437.3452542747207</v>
       </c>
       <c r="R18">
-        <v>345.332704007288</v>
+        <v>3936.107288472486</v>
       </c>
       <c r="S18">
-        <v>0.05678543674175925</v>
+        <v>0.03002891233889264</v>
       </c>
       <c r="T18">
-        <v>0.05678543674175925</v>
+        <v>0.03002891233889264</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.97841895083932</v>
+        <v>4.696535333333333</v>
       </c>
       <c r="H19">
-        <v>3.97841895083932</v>
+        <v>14.089606</v>
       </c>
       <c r="I19">
-        <v>0.1379379756516369</v>
+        <v>0.07766207917330753</v>
       </c>
       <c r="J19">
-        <v>0.1379379756516369</v>
+        <v>0.07766207917330753</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N19">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O19">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P19">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q19">
-        <v>27.58574090136703</v>
+        <v>35.14763681138577</v>
       </c>
       <c r="R19">
-        <v>27.58574090136703</v>
+        <v>316.328731302472</v>
       </c>
       <c r="S19">
-        <v>0.00453611351242331</v>
+        <v>0.002413300005915592</v>
       </c>
       <c r="T19">
-        <v>0.00453611351242331</v>
+        <v>0.002413300005915592</v>
       </c>
     </row>
   </sheetData>
